--- a/biology/Botanique/Potamot_des_Alpes/Potamot_des_Alpes.xlsx
+++ b/biology/Botanique/Potamot_des_Alpes/Potamot_des_Alpes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Potamogeton alpinus
 Le Potamot des Alpes ou Potamot alpin (Potamogeton alpinus) est une espèce de plante vivace du genre Potamogeton et de la famille des Potamogetonaceae.
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-La plante est glabre, à tiges simples, cylindriques. Les feuilles submergées sont de la forme d'une lance, sessiles, persistantes à la floraison. Les feuilles flottantes sont également lancéolées, insensiblement atténuées en pétiole, devenant rougeâtres. Les pédoncules sont non renflés, de la grosseur de la tige[1].
-Appareil reproducteur
-L'épi fructifère est long de 2 à 4 cm, cylindrique, compact. Les carpelles mesurent 3 mm sur 2 mm, devenant rougeâtres, comprimés, à carène[2] aiguë et à bec comprimé bien distinct[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est glabre, à tiges simples, cylindriques. Les feuilles submergées sont de la forme d'une lance, sessiles, persistantes à la floraison. Les feuilles flottantes sont également lancéolées, insensiblement atténuées en pétiole, devenant rougeâtres. Les pédoncules sont non renflés, de la grosseur de la tige.
 </t>
         </is>
       </c>
@@ -543,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Caractéristiques</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La floraison a lieu de juin à août[3].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épi fructifère est long de 2 à 4 cm, cylindrique, compact. Les carpelles mesurent 3 mm sur 2 mm, devenant rougeâtres, comprimés, à carène aiguë et à bec comprimé bien distinct.
 </t>
         </is>
       </c>
@@ -574,12 +595,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce, malgré son nom, n'est pas spécifique au massif des Alpes, mais est commune à l'ensemble de l'hémisphère nord, dans la région circumboréale[3].
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu de juin à août.
 </t>
         </is>
       </c>
@@ -605,12 +628,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le potamot des Alpes pousse dans les milieux humides voire inondés : bords de rivières, eaux stagnantes, marais[4]. On le trouve jusqu'à une altitude de 2 250 mètres[3].
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce, malgré son nom, n'est pas spécifique au massif des Alpes, mais est commune à l'ensemble de l'hémisphère nord, dans la région circumboréale.
 </t>
         </is>
       </c>
@@ -636,10 +661,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le potamot des Alpes pousse dans les milieux humides voire inondés : bords de rivières, eaux stagnantes, marais. On le trouve jusqu'à une altitude de 2 250 mètres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Potamot_des_Alpes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Potamot_des_Alpes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Buccaferrea rufescens (Schrad.) Bubani, 1902
 Potamogeton alpinus var. lacustris T.Marsson, 1869
@@ -664,7 +724,7 @@
 Potamogeton rufescens Schrad., 1815
 Potamogeton semipellucidus W.D.J.Koch &amp; Ziz, 1814
 Potamogeton stylatus Hagstr., 1916
-Potamogeton thomasii A.Benn., 1892[4]</t>
+Potamogeton thomasii A.Benn., 1892</t>
         </is>
       </c>
     </row>
